--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13442" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13690" uniqueCount="116">
   <si>
     <t>Construction price indices: Germany, reference month per
 quarter, indices including/excluding turnover tax, maint.
@@ -350,13 +350,19 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>______________</t>
   </si>
   <si>
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:25:15</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:02:58</t>
   </si>
 </sst>
 </file>
@@ -57496,19 +57502,890 @@
         <v>43</v>
       </c>
     </row>
-    <row r="711">
-      <c r="A711" t="s" s="11">
+    <row r="711" ht="33.75" customHeight="true">
+      <c r="A711" t="s" s="14">
         <v>111</v>
       </c>
     </row>
-    <row r="712">
-      <c r="A712" t="s" s="11">
+    <row r="712" ht="33.75" customHeight="true">
+      <c r="A712" t="s" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B713" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C713" t="n" s="10">
+        <v>138.7</v>
+      </c>
+      <c r="D713" t="n" s="10">
+        <v>138.6</v>
+      </c>
+      <c r="E713" t="n" s="10">
+        <v>146.0</v>
+      </c>
+      <c r="F713" t="n" s="10">
+        <v>131.5</v>
+      </c>
+      <c r="G713" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="H713" t="n" s="10">
+        <v>157.8</v>
+      </c>
+      <c r="I713" t="n" s="10">
+        <v>127.7</v>
+      </c>
+      <c r="J713" t="n" s="10">
+        <v>140.2</v>
+      </c>
+      <c r="K713" t="n" s="10">
+        <v>145.6</v>
+      </c>
+      <c r="L713" t="n" s="10">
+        <v>141.5</v>
+      </c>
+      <c r="M713" t="n" s="10">
+        <v>135.0</v>
+      </c>
+      <c r="N713" t="n" s="10">
+        <v>127.7</v>
+      </c>
+      <c r="O713" t="n" s="10">
+        <v>130.4</v>
+      </c>
+      <c r="P713" t="n" s="10">
+        <v>130.5</v>
+      </c>
+      <c r="Q713" t="n" s="10">
+        <v>136.2</v>
+      </c>
+      <c r="R713" t="n" s="10">
+        <v>135.3</v>
+      </c>
+      <c r="S713" t="n" s="10">
+        <v>141.8</v>
+      </c>
+      <c r="T713" t="n" s="10">
+        <v>129.2</v>
+      </c>
+      <c r="U713" t="n" s="10">
+        <v>129.7</v>
+      </c>
+      <c r="V713" t="n" s="10">
+        <v>135.1</v>
+      </c>
+      <c r="W713" t="n" s="10">
+        <v>135.7</v>
+      </c>
+      <c r="X713" t="n" s="10">
+        <v>147.6</v>
+      </c>
+      <c r="Y713" t="n" s="10">
+        <v>133.6</v>
+      </c>
+      <c r="Z713" t="n" s="10">
+        <v>131.2</v>
+      </c>
+      <c r="AA713" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="AB713" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AC713" t="n" s="10">
+        <v>136.9</v>
+      </c>
+      <c r="AD713" t="n" s="10">
+        <v>140.0</v>
+      </c>
+      <c r="AE713" t="n" s="10">
+        <v>142.5</v>
+      </c>
+      <c r="AF713" t="n" s="10">
+        <v>145.3</v>
+      </c>
+      <c r="AG713" t="n" s="10">
+        <v>148.9</v>
+      </c>
+      <c r="AH713" t="n" s="10">
+        <v>133.3</v>
+      </c>
+      <c r="AI713" t="n" s="10">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B714" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C714" t="s" s="10">
         <v>112</v>
       </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="s" s="12">
+      <c r="D714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH714" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI714" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B715" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH715" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI715" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B716" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH716" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI716" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="717" ht="33.75" customHeight="true">
+      <c r="A717" t="s" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B718" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C718" t="n" s="10">
+        <v>130.9</v>
+      </c>
+      <c r="D718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="E718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="F718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="G718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="H718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="I718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="J718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="L718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="M718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="N718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="O718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="P718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="Q718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="R718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="S718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="T718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="U718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="V718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="W718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="X718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="Y718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="Z718" t="n" s="10">
+        <v>131.8</v>
+      </c>
+      <c r="AA718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AB718" t="n" s="10">
+        <v>129.3</v>
+      </c>
+      <c r="AC718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AD718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AE718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AF718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AG718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AH718" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="AI718" t="s" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B719" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH719" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI719" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B720" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH720" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI720" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B721" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="E721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="G721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="H721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="K721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="L721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="M721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="N721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="O721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="P721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="R721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="S721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="T721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="U721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="V721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="W721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="X721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH721" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI721" t="s" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="11">
         <v>113</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="12">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -57710,11 +58587,14 @@
     <mergeCell ref="A700:AI700"/>
     <mergeCell ref="A701:AI701"/>
     <mergeCell ref="A706:AI706"/>
+    <mergeCell ref="A711:AI711"/>
+    <mergeCell ref="A712:AI712"/>
+    <mergeCell ref="A717:AI717"/>
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:25:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:03:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction price indices by maintenance of residential buildings quarters.xlsx
@@ -362,7 +362,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:02:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:16:58</t>
   </si>
 </sst>
 </file>
@@ -58594,7 +58594,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:03:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:17:03&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>